--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3349003.076073193</v>
+        <v>3346511.126749354</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,10 +674,10 @@
         <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051722</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548844</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.11929342089635</v>
+        <v>62.22601572607275</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387723</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337391</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>191.1373540121893</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.6512572364329</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>74.45744975226967</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220423</v>
+        <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
         <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031445</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870421</v>
+        <v>53.80849853870452</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799447</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486214</v>
+        <v>197.1557544486215</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>126.3682506276526</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>149.1528076724862</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>34.52851913423444</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>313.6260094832859</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>293.2924398524917</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>110.9728016511685</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>77.43213079320299</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>58.5805601751612</v>
       </c>
       <c r="S7" t="n">
-        <v>125.2918673056485</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>309.3164443333229</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>121.7301906704636</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110072</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>199.4095034501334</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>68.17501931583821</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,13 +1844,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.7304175246775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.0280580960833</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428168</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648957</v>
       </c>
     </row>
     <row r="38">
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784685</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428168</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053459</v>
+        <v>154.8443340724367</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.384508257709</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.384508257709</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.384508257709</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="E2" t="n">
-        <v>804.5962556594644</v>
+        <v>962.8652392502566</v>
       </c>
       <c r="F2" t="n">
-        <v>797.650754910261</v>
+        <v>955.9197385010532</v>
       </c>
       <c r="G2" t="n">
-        <v>379.5623632513274</v>
+        <v>537.8313468421197</v>
       </c>
       <c r="H2" t="n">
-        <v>51.09175193297172</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297172</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710344</v>
+        <v>156.4961545710335</v>
       </c>
       <c r="K2" t="n">
-        <v>435.214835100503</v>
+        <v>435.2148351005007</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311676</v>
+        <v>833.2666318311637</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537229</v>
+        <v>1292.782497537224</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813649</v>
+        <v>1745.101812813642</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.02647813282</v>
+        <v>2127.026478132811</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935775</v>
+        <v>2415.315960935765</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648586</v>
+        <v>2554.587596648575</v>
       </c>
       <c r="R2" t="n">
-        <v>2526.184269960812</v>
+        <v>2491.733035309107</v>
       </c>
       <c r="S2" t="n">
-        <v>2347.167834467103</v>
+        <v>2312.716599815398</v>
       </c>
       <c r="T2" t="n">
-        <v>2127.987802917871</v>
+        <v>2093.536568266166</v>
       </c>
       <c r="U2" t="n">
-        <v>1874.216050871393</v>
+        <v>1839.764816219688</v>
       </c>
       <c r="V2" t="n">
-        <v>1543.153163527823</v>
+        <v>1508.701928876118</v>
       </c>
       <c r="W2" t="n">
-        <v>1190.384508257709</v>
+        <v>1155.933273606003</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.384508257709</v>
+        <v>1155.933273606003</v>
       </c>
       <c r="Y2" t="n">
-        <v>1190.384508257709</v>
+        <v>962.8652392502566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.6522061135607</v>
+        <v>840.2866238777569</v>
       </c>
       <c r="C3" t="n">
-        <v>814.1991768324337</v>
+        <v>665.83359459663</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711825</v>
+        <v>516.8991849353787</v>
       </c>
       <c r="E3" t="n">
-        <v>506.027312165727</v>
+        <v>441.6896397310659</v>
       </c>
       <c r="F3" t="n">
-        <v>359.492754192612</v>
+        <v>295.1550817579508</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5159830592359</v>
+        <v>157.1783106245747</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676328</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297172</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="J3" t="n">
-        <v>51.09175193297172</v>
+        <v>120.1765123687508</v>
       </c>
       <c r="K3" t="n">
-        <v>295.7894542912757</v>
+        <v>364.874214727054</v>
       </c>
       <c r="L3" t="n">
-        <v>686.2201089708967</v>
+        <v>755.304869406674</v>
       </c>
       <c r="M3" t="n">
-        <v>1105.758028360712</v>
+        <v>1262.898249633823</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.49290835869</v>
+        <v>1799.633129631799</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635563</v>
+        <v>2224.225006908672</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153977</v>
+        <v>2547.994353427085</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648586</v>
+        <v>2554.587596648575</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922622</v>
+        <v>2500.235577922611</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973183</v>
+        <v>2340.824460973172</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257404</v>
+        <v>2141.677234257393</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828267</v>
+        <v>1913.503224828256</v>
       </c>
       <c r="V3" t="n">
-        <v>1678.351116596525</v>
+        <v>1678.351116596513</v>
       </c>
       <c r="W3" t="n">
-        <v>1424.113759868323</v>
+        <v>1424.113759868312</v>
       </c>
       <c r="X3" t="n">
-        <v>1216.26225966279</v>
+        <v>1216.262259662779</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.501960897836</v>
+        <v>1008.501960897825</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>497.7892718769039</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="C4" t="n">
-        <v>328.853088948997</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="D4" t="n">
-        <v>178.7364495366612</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297172</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297172</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297172</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297172</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297172</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297172</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771867</v>
+        <v>101.030457077186</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703282</v>
+        <v>220.4612409703269</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486114</v>
+        <v>356.7733802486094</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493222</v>
+        <v>495.2789379493196</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455668</v>
+        <v>607.1949427455636</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071436</v>
+        <v>679.4377367071399</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071436</v>
+        <v>679.4377367071399</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071436</v>
+        <v>528.7783350177599</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071436</v>
+        <v>313.5160079604935</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071436</v>
+        <v>85.96904398775376</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071436</v>
+        <v>85.96904398775376</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071436</v>
+        <v>85.96904398775376</v>
       </c>
       <c r="W4" t="n">
-        <v>679.4377367071436</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="X4" t="n">
-        <v>679.4377367071436</v>
+        <v>51.0917519329715</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.4377367071436</v>
+        <v>51.0917519329715</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1701.595645292333</v>
+        <v>1502.479248413272</v>
       </c>
       <c r="C5" t="n">
-        <v>1701.595645292333</v>
+        <v>1133.51673147286</v>
       </c>
       <c r="D5" t="n">
-        <v>1384.801696319317</v>
+        <v>775.2510328661099</v>
       </c>
       <c r="E5" t="n">
-        <v>999.0134437210725</v>
+        <v>389.4627802678656</v>
       </c>
       <c r="F5" t="n">
-        <v>588.0275389314648</v>
+        <v>382.5172795186621</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>369.4699017954936</v>
       </c>
       <c r="H5" t="n">
-        <v>170.9397571678923</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4571,19 +4571,19 @@
         <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>1028.761407827631</v>
+        <v>903.6722150837464</v>
       </c>
       <c r="M5" t="n">
-        <v>1660.479218810943</v>
+        <v>1090.371627909154</v>
       </c>
       <c r="N5" t="n">
-        <v>1854.813431702925</v>
+        <v>1717.679295969001</v>
       </c>
       <c r="O5" t="n">
-        <v>2024.982457019885</v>
+        <v>1887.84832128596</v>
       </c>
       <c r="P5" t="n">
-        <v>2454.297503359179</v>
+        <v>2317.163367625255</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2406.124290896983</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2406.124290896983</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2075.061403553413</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2075.061403553413</v>
+        <v>2266.084338650164</v>
       </c>
       <c r="X5" t="n">
-        <v>1701.595645292333</v>
+        <v>1892.618580389084</v>
       </c>
       <c r="Y5" t="n">
-        <v>1701.595645292333</v>
+        <v>1502.479248413272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647829</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4647,19 +4647,19 @@
         <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>118.8546062313602</v>
+        <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>623.2161460974787</v>
+        <v>885.0367307399315</v>
       </c>
       <c r="M6" t="n">
-        <v>1247.297767139118</v>
+        <v>1064.534067094536</v>
       </c>
       <c r="N6" t="n">
-        <v>1881.476750918157</v>
+        <v>1566.198609964619</v>
       </c>
       <c r="O6" t="n">
-        <v>2430.912759670879</v>
+        <v>2115.634618717342</v>
       </c>
       <c r="P6" t="n">
         <v>2539.602387198178</v>
@@ -4671,25 +4671,25 @@
         <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2463.013155273854</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2266.023859433942</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>2037.885071945108</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
-        <v>1802.732963713365</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.9860105762135</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
         <v>51.24678656800311</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>992.0091850221345</v>
       </c>
       <c r="S7" t="n">
-        <v>924.6240263044706</v>
+        <v>992.0091850221345</v>
       </c>
       <c r="T7" t="n">
-        <v>924.6240263044706</v>
+        <v>992.0091850221345</v>
       </c>
       <c r="U7" t="n">
-        <v>924.6240263044706</v>
+        <v>702.8570085998142</v>
       </c>
       <c r="V7" t="n">
-        <v>924.6240263044706</v>
+        <v>448.1725203939274</v>
       </c>
       <c r="W7" t="n">
-        <v>924.6240263044706</v>
+        <v>448.1725203939274</v>
       </c>
       <c r="X7" t="n">
-        <v>696.6344754064532</v>
+        <v>220.18296949591</v>
       </c>
       <c r="Y7" t="n">
-        <v>696.6344754064532</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1488.368453810659</v>
+        <v>1709.873294294348</v>
       </c>
       <c r="C8" t="n">
-        <v>1119.405936870247</v>
+        <v>1340.910777353936</v>
       </c>
       <c r="D8" t="n">
-        <v>761.1402382634967</v>
+        <v>982.6450787471858</v>
       </c>
       <c r="E8" t="n">
-        <v>375.3519856652525</v>
+        <v>596.8568261489415</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>589.9113253997381</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>174.2065751240269</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786471</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1488.368453810659</v>
+        <v>1709.873294294348</v>
       </c>
     </row>
     <row r="9">
@@ -4884,25 +4884,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>142.86104461962</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>732.3487252516923</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>732.3487252516923</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>530.9249843929716</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,28 +5051,28 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,46 +5270,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,7 +5495,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,10 +6218,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>317.6151975578602</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,7 +6458,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6543,22 +6543,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.2707707770319</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>634.334587849125</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,22 +6838,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7157,10 +7157,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7403,52 +7403,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7555,16 +7555,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7628,10 +7628,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7731,19 +7731,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2040.654127232581</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>56.3084490416414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>376.7601538132978</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>51.34979150037581</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,13 +8219,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>291.3084946071327</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>73.7956616357389</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,22 +8295,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>449.0750350374088</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933068</v>
+        <v>306.0684860781997</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
-        <v>240.4465442417435</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>72.11969353038565</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.8542358274173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5874149221290565</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393068</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719908</v>
       </c>
     </row>
     <row r="38">
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864957</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194237</v>
+        <v>62.56111625485153</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>794864.3683292023</v>
+        <v>794864.3683292022</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>692783.9933516409</v>
+        <v>692783.9933516408</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692783.9933516408</v>
+        <v>692783.9933516409</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778553</v>
       </c>
-      <c r="C2" t="n">
-        <v>738937.5928778552</v>
-      </c>
       <c r="D2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="K2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="N2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161992</v>
+        <v>548460.0746161961</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299244</v>
+        <v>225009.9816299274</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843807</v>
+        <v>167098.12928438</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243594798</v>
+        <v>498.7619243601235</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198057</v>
+        <v>247452.3619198066</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26427,37 +26427,37 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719641</v>
+        <v>7507.368461719652</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171965</v>
+        <v>7507.368461719685</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719652</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.36846171969</v>
+      </c>
+      <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>7507.368461719677</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>7507.368461719688</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="M4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719692</v>
-      </c>
       <c r="O4" t="n">
-        <v>7507.36846171969</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719698</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946045</v>
+        <v>80023.31371946025</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905218</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136998.1573776101</v>
+        <v>-136998.1573776079</v>
       </c>
       <c r="C6" t="n">
-        <v>230102.0398087262</v>
+        <v>230102.0398087234</v>
       </c>
       <c r="D6" t="n">
-        <v>221200.9473682389</v>
+        <v>221200.947368239</v>
       </c>
       <c r="E6" t="n">
-        <v>110316.5998108325</v>
+        <v>110281.8618853972</v>
       </c>
       <c r="F6" t="n">
-        <v>617802.0414353786</v>
+        <v>617767.3035099431</v>
       </c>
       <c r="G6" t="n">
-        <v>617802.0414353786</v>
+        <v>617767.3035099431</v>
       </c>
       <c r="H6" t="n">
-        <v>617802.0414353787</v>
+        <v>617767.303509943</v>
       </c>
       <c r="I6" t="n">
-        <v>617802.0414353786</v>
+        <v>617767.303509943</v>
       </c>
       <c r="J6" t="n">
-        <v>450703.9121509978</v>
+        <v>450669.174225563</v>
       </c>
       <c r="K6" t="n">
-        <v>617303.2795110194</v>
+        <v>617268.5415855827</v>
       </c>
       <c r="L6" t="n">
-        <v>617802.0414353783</v>
+        <v>617767.3035099432</v>
       </c>
       <c r="M6" t="n">
-        <v>485194.7477064515</v>
+        <v>485160.0097810162</v>
       </c>
       <c r="N6" t="n">
-        <v>617802.0414353784</v>
+        <v>617767.3035099428</v>
       </c>
       <c r="O6" t="n">
-        <v>617802.0414353783</v>
+        <v>617767.3035099428</v>
       </c>
       <c r="P6" t="n">
-        <v>617802.0414353785</v>
+        <v>617767.3035099431</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817409</v>
+        <v>347.0634059817386</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621465</v>
+        <v>638.6468991621438</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26796,13 +26796,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817409</v>
+        <v>347.0634059817386</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563242</v>
+        <v>246.4126943563265</v>
       </c>
       <c r="D3" t="n">
         <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621465</v>
+        <v>638.6468991621438</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937892356</v>
+        <v>1.937932937895084</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621465</v>
+        <v>638.646899162144</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937892356</v>
+        <v>1.937932937894857</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621465</v>
+        <v>638.6468991621438</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937892356</v>
+        <v>1.937932937895084</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.686293754884</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34.10672230517581</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>195.1005846438642</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.8819264134344</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>83.18763070313128</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>63.69429571031462</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>20.06571201891656</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3651273148851</v>
       </c>
       <c r="H4" t="n">
-        <v>156.6627788836667</v>
+        <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077895</v>
+        <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601706</v>
+        <v>49.11144063601736</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845152</v>
+        <v>33.75546894845186</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724861</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866936</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330124</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.284891972296</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>251.9944792023566</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>41.05703213739707</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27673,16 +27673,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>55.94852886492129</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>25.09418201320175</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>70.53999045278857</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>70.59262149263012</v>
       </c>
       <c r="S7" t="n">
-        <v>80.07401459447019</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>97.55960140838857</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>179.2883618919418</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -27904,16 +27904,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546845</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>19.17514990196136</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.868909745143369e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-2.460627728946658e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28564,13 +28564,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.553251631224171e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.142369289011372e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30706,7 +30706,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790917</v>
+        <v>1.395229772790908</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059498</v>
+        <v>14.28889691059489</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552188</v>
+        <v>53.78959581552152</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284132</v>
+        <v>118.4183829284124</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106527</v>
+        <v>177.4784592106516</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697028</v>
+        <v>220.1777223697014</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415733</v>
+        <v>244.9901398415717</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335155</v>
+        <v>248.9543364335139</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803258</v>
+        <v>235.0805203803243</v>
       </c>
       <c r="P2" t="n">
-        <v>200.63578536455</v>
+        <v>200.6357853645487</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264752</v>
+        <v>150.6691191264742</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507752</v>
+        <v>87.64310221507694</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747305</v>
+        <v>31.79379844747285</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392242</v>
+        <v>6.107618330392202</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232733</v>
+        <v>0.1116183818232726</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682728</v>
+        <v>0.746513741168268</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809373</v>
+        <v>7.209751131809326</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110062</v>
+        <v>25.70233714110045</v>
       </c>
       <c r="J3" t="n">
-        <v>70.5291776250253</v>
+        <v>70.52917762502483</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832996</v>
+        <v>120.5455982832988</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426989</v>
+        <v>162.0884331426978</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600487</v>
+        <v>189.1495562600475</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821816</v>
+        <v>194.1557821821804</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857688</v>
+        <v>177.6146092857677</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323871</v>
+        <v>142.5513827323862</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351498</v>
+        <v>95.29182422351435</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393892</v>
+        <v>46.34933561393861</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389313</v>
+        <v>13.86616532389304</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200186</v>
+        <v>3.008974246200166</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949165</v>
+        <v>0.04911274612949133</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.625852043573631</v>
+        <v>0.6258520435736269</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772832</v>
+        <v>5.564393623772796</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946884</v>
+        <v>18.82107781946871</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065571</v>
+        <v>44.24773948065542</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519093</v>
+        <v>72.71262833519046</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730148</v>
+        <v>93.04713018730087</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218289</v>
+        <v>98.10515261218225</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886307</v>
+        <v>95.77243135886245</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711653</v>
+        <v>88.46134157711595</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821439</v>
+        <v>75.6939598882139</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324287</v>
+        <v>52.40657430324252</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468344</v>
+        <v>28.14058370468325</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027864</v>
+        <v>10.90689425027857</v>
       </c>
       <c r="T4" t="n">
-        <v>2.67409509526915</v>
+        <v>2.674095095269132</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492537</v>
+        <v>0.03413738419492515</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,25 +33263,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34451,22 +34451,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738007</v>
+        <v>106.4690935737999</v>
       </c>
       <c r="K2" t="n">
-        <v>281.534020736837</v>
+        <v>281.5340207368358</v>
       </c>
       <c r="L2" t="n">
-        <v>402.072521950166</v>
+        <v>402.0725219501646</v>
       </c>
       <c r="M2" t="n">
-        <v>464.157440107133</v>
+        <v>464.1574401071314</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489087</v>
+        <v>456.8881972489071</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213844</v>
+        <v>385.7824902213829</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807631</v>
+        <v>291.2014977807618</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119304</v>
+        <v>140.6784199119294</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>69.78258629876697</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215192</v>
+        <v>247.1693963215184</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662839</v>
+        <v>394.3743986662828</v>
       </c>
       <c r="M3" t="n">
-        <v>423.7756761513283</v>
+        <v>512.7205860880291</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424018</v>
+        <v>542.1564444424006</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180539</v>
+        <v>428.8806841180527</v>
       </c>
       <c r="P3" t="n">
-        <v>327.039743957994</v>
+        <v>327.0397439579931</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733426</v>
+        <v>6.659841637868642</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930808</v>
+        <v>50.44313650930761</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476176</v>
+        <v>120.637155447617</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740235</v>
+        <v>137.6890295740228</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380917</v>
+        <v>139.9046037380911</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911562</v>
+        <v>113.0464694911556</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310788</v>
+        <v>72.97251915310738</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,13 +34939,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>432.0445106083985</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>171.8879043605652</v>
@@ -34954,7 +34954,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>109.1331566070471</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>630.3854757996359</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>506.7318614849318</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35252,7 +35252,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35261,19 +35261,19 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530514</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>490.1260733652758</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924738</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
